--- a/Markers/Marker_list_BU.xlsx
+++ b/Markers/Marker_list_BU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiesun/Storage/Work/Projects/PAST/Microglial_annotation/Microglial-annotation/Markers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89134099-51F7-CD46-8DE2-3C797A316350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E646A8D-2D58-9B48-902A-EBC50E9E2395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="760" windowWidth="26020" windowHeight="18880" xr2:uid="{154C570F-0952-714B-9412-696B912925D9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>DAM</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>Gpr34</t>
-  </si>
-  <si>
-    <t>Ifngr1</t>
   </si>
   <si>
     <t>Laptm5</t>
@@ -524,7 +521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -535,20 +532,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -574,24 +557,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -922,7 +900,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,107 +918,107 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K4"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>130</v>
+      <c r="A5" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -1048,22 +1026,22 @@
       <c r="C5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K5"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1072,23 +1050,23 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K6"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>131</v>
+      <c r="A7" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
@@ -1096,22 +1074,22 @@
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K7"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1120,623 +1098,610 @@
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K8"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K9"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="K10"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="K11"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>133</v>
+      <c r="A12" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="K12"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="K13"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>134</v>
+      <c r="A14" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="K14"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>135</v>
+      <c r="A15" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="K15"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="K16"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>137</v>
+      <c r="A17" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="K17"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="C20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>142</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K22"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K23"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K24"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>143</v>
+      <c r="A25" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K25"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K26"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="A27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K28"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G29"/>
-      <c r="K29"/>
+      <c r="G29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="K30"/>
+      <c r="G30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="K31"/>
+      <c r="G31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G32" t="s">
-        <v>129</v>
-      </c>
-      <c r="K32"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K33"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K34"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E35" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K35"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K36"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E37" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K37"/>
+        <v>153</v>
+      </c>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E38" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K38"/>
+        <v>152</v>
+      </c>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E39" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="K39"/>
+        <v>156</v>
+      </c>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E40" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="K40"/>
+        <v>157</v>
+      </c>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E41" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K41"/>
+        <v>158</v>
+      </c>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E42" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K42"/>
+        <v>159</v>
+      </c>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="K43"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="K44"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="K45"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="K46"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="K47"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="K48"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K49"/>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K50"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K51"/>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K52"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K53"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K54"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K55"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K56"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K57"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K58"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K59"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K60"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K61"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K62"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K63"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K64"/>
+      <c r="K64" s="3"/>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K65"/>
+      <c r="K65" s="3"/>
     </row>
     <row r="66" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K66"/>
+      <c r="K66" s="3"/>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K67"/>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K68"/>
+      <c r="K68" s="3"/>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K69"/>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K70"/>
+      <c r="K70" s="3"/>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K71"/>
+      <c r="K71" s="3"/>
     </row>
     <row r="72" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K72"/>
+      <c r="K72" s="3"/>
     </row>
     <row r="73" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K73"/>
+      <c r="K73" s="3"/>
     </row>
     <row r="74" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K74"/>
+      <c r="K74" s="3"/>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K75"/>
+      <c r="K75" s="3"/>
     </row>
     <row r="76" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K76"/>
+      <c r="K76" s="3"/>
     </row>
     <row r="77" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K77"/>
+      <c r="K77" s="3"/>
     </row>
     <row r="78" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K78"/>
+      <c r="K78" s="3"/>
     </row>
     <row r="79" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K79"/>
+      <c r="K79" s="3"/>
     </row>
     <row r="80" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K80"/>
+      <c r="K80" s="3"/>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K81"/>
+      <c r="K81" s="3"/>
     </row>
     <row r="82" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K82"/>
+      <c r="K82" s="3"/>
     </row>
     <row r="83" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K83"/>
+      <c r="K83" s="3"/>
     </row>
     <row r="84" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K84"/>
+      <c r="K84" s="3"/>
     </row>
     <row r="85" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K85"/>
+      <c r="K85" s="3"/>
     </row>
     <row r="86" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K86"/>
+      <c r="K86" s="3"/>
     </row>
     <row r="87" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K87"/>
+      <c r="K87" s="3"/>
     </row>
     <row r="88" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K88"/>
+      <c r="K88" s="3"/>
     </row>
     <row r="89" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K89"/>
+      <c r="K89" s="3"/>
     </row>
     <row r="90" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K90"/>
+      <c r="K90" s="3"/>
     </row>
     <row r="91" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K91"/>
+      <c r="K91" s="3"/>
     </row>
     <row r="92" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K92"/>
+      <c r="K92" s="3"/>
     </row>
     <row r="93" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K93"/>
+      <c r="K93" s="3"/>
     </row>
     <row r="94" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K94"/>
+      <c r="K94" s="3"/>
     </row>
     <row r="95" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K95"/>
+      <c r="K95" s="3"/>
     </row>
     <row r="96" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K96"/>
+      <c r="K96" s="3"/>
     </row>
     <row r="97" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K97"/>
+      <c r="K97" s="3"/>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K98"/>
+      <c r="K98" s="3"/>
     </row>
     <row r="99" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K99"/>
+      <c r="K99" s="3"/>
     </row>
     <row r="100" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K100"/>
+      <c r="K100" s="3"/>
     </row>
     <row r="101" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K101"/>
+      <c r="K101" s="3"/>
     </row>
     <row r="102" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K102"/>
+      <c r="K102" s="3"/>
     </row>
     <row r="103" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K103"/>
+      <c r="K103" s="3"/>
     </row>
     <row r="104" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K104"/>
+      <c r="K104" s="3"/>
     </row>
     <row r="105" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K105"/>
+      <c r="K105" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
